--- a/Sierra_Ancha_Species_Lists_Aug 2021_MMM_jsj.xlsx
+++ b/Sierra_Ancha_Species_Lists_Aug 2021_MMM_jsj.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\arcGIS_stuff\consultation\Margaret_Moore\Sierra_Ancha\Summary_Data_from_JSJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE77D82C-2344-46F1-A49A-F8C61523002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E02A3E-B79F-4CC2-9979-81274D06D950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="600" windowWidth="24240" windowHeight="16245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="2625" windowWidth="24300" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Density_Species" sheetId="1" r:id="rId1"/>
     <sheet name="Cover_Species" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="1110">
   <si>
     <t>Count</t>
   </si>
@@ -2852,9 +2853,6 @@
   </si>
   <si>
     <t>misspelled - there is an "L" at the beginning of column A.</t>
-  </si>
-  <si>
-    <t>combine with Bothriochloa laguroides</t>
   </si>
   <si>
     <t>wrong genus</t>
@@ -3458,12 +3456,6 @@
     <t>formerly Chamaesyce fendleri; Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx)</t>
   </si>
   <si>
-    <t>misspelled; Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx)</t>
-  </si>
-  <si>
-    <t>fix name and change to Cover Species; Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx)</t>
-  </si>
-  <si>
     <t>shrub; Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx)</t>
   </si>
   <si>
@@ -3711,12 +3703,54 @@
   <si>
     <t>From Wade Gibson, April 10 2023 and Compare_R_with_GIS_PostReview_Nov_24_2023_WG_edits_Nov_28.xlsx</t>
   </si>
+  <si>
+    <t>formerly Chamaesyce fendleri; Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx). Email from July 15, 2024 requests to change Euphorbia fendleri back to Euphorbia sp.</t>
+  </si>
+  <si>
+    <t>fix name and change to Cover Species; Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx). Email from July 15, 2024 requests to change Euphorbia fendleri back to Euphorbia sp.</t>
+  </si>
+  <si>
+    <t>Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx). Email from July 15, 2024 requests to change Euphorbia fendleri back to Euphorbia sp.</t>
+  </si>
+  <si>
+    <t>misspelled; Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx). Email from July 15, 2024 requests to change Euphorbia fendleri back to Euphorbia sp.</t>
+  </si>
+  <si>
+    <t>Stop Change Type From Wade Gibson, April 20 2023; Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx). Email from July 15, 2024 requests to change Euphorbia fendleri back to Euphorbia sp.</t>
+  </si>
+  <si>
+    <t>Heliomerios longifolia</t>
+  </si>
+  <si>
+    <t>Macaeranthera tagetina</t>
+  </si>
+  <si>
+    <t>Artemisia campestris</t>
+  </si>
+  <si>
+    <t>From Margaret Moore and CJ Horn; November 2024</t>
+  </si>
+  <si>
+    <t>Castilleja sp.</t>
+  </si>
+  <si>
+    <t>Sierra_Ancha_1934_2024_PDF v3_Review_MMM_Dec20.xlsx</t>
+  </si>
+  <si>
+    <t>Originally changed to Bothriochloa laguroides; Sierra_Ancha_1934_2024_PDF v3_Review_MMM_Dec20.xlsx says change to barbinodis</t>
+  </si>
+  <si>
+    <t>Ayenia insulicola</t>
+  </si>
+  <si>
+    <t>Change Type From Wade Gibson, April 20 2023; Type Change from Wade Nov. 28 2023 (Notes_regarding_Nov_24_Review_WG_edits_Nov_27.docx); Change to A. insulicola based on Wade's email of June 18, 2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3788,6 +3822,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3815,7 +3856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3825,6 +3866,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -4107,11 +4149,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EI198"/>
+  <dimension ref="A1:EI202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4154,19 +4196,19 @@
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>139</v>
@@ -4628,7 +4670,7 @@
         <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>282</v>
@@ -4645,7 +4687,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>283</v>
@@ -4677,7 +4719,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>289</v>
@@ -4697,7 +4739,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>292</v>
@@ -4720,10 +4762,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>296</v>
@@ -4743,7 +4785,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>274</v>
@@ -4760,13 +4802,13 @@
     </row>
     <row r="10" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B10" s="2">
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>274</v>
@@ -4789,10 +4831,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>301</v>
@@ -4815,13 +4857,13 @@
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:139" x14ac:dyDescent="0.2">
@@ -4870,7 +4912,7 @@
     </row>
     <row r="14" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B14" s="2">
         <v>105</v>
@@ -4923,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>928</v>
@@ -4934,7 +4976,7 @@
     </row>
     <row r="16" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -4943,7 +4985,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>928</v>
@@ -4980,7 +5022,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>319</v>
@@ -5050,7 +5092,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>33</v>
@@ -5118,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>340</v>
@@ -5196,8 +5238,11 @@
       <c r="B26" s="2">
         <v>7</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>1108</v>
+      </c>
       <c r="E26" s="5" t="s">
-        <v>1059</v>
+        <v>1109</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>357</v>
@@ -5387,7 +5432,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -5447,7 +5492,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>928</v>
@@ -5482,7 +5527,7 @@
         <v>172</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>928</v>
@@ -5526,7 +5571,7 @@
     </row>
     <row r="36" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B36" s="2">
         <v>172</v>
@@ -5535,7 +5580,7 @@
         <v>61</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>928</v>
@@ -5809,7 +5854,7 @@
         <v>129</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>396</v>
@@ -5823,7 +5868,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>392</v>
@@ -5880,7 +5925,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>428</v>
@@ -5929,7 +5974,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>374</v>
@@ -5961,7 +6006,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>429</v>
@@ -6000,7 +6045,7 @@
         <v>54</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>397</v>
@@ -6017,10 +6062,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1074</v>
+        <v>1097</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>319</v>
@@ -6034,10 +6079,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1074</v>
+        <v>1097</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>406</v>
@@ -6045,18 +6090,18 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E52" s="5"/>
     </row>
@@ -6068,10 +6113,10 @@
         <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>431</v>
@@ -6091,10 +6136,10 @@
         <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>430</v>
@@ -6218,7 +6263,7 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B56" s="2">
         <v>941</v>
@@ -6337,7 +6382,7 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B57" s="2">
         <v>941</v>
@@ -6462,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>309</v>
@@ -6535,7 +6580,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>439</v>
@@ -6569,7 +6614,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>7</v>
@@ -6597,7 +6642,7 @@
         <v>42</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>275</v>
@@ -6623,7 +6668,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>390</v>
@@ -6649,7 +6694,7 @@
         <v>639</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>442</v>
@@ -7062,7 +7107,7 @@
         <v>178</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>405</v>
@@ -7079,7 +7124,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>468</v>
@@ -7092,8 +7137,11 @@
       <c r="B69" s="2">
         <v>94</v>
       </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E69" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>397</v>
@@ -7149,10 +7197,10 @@
         <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1072</v>
+        <v>1096</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>395</v>
@@ -7253,13 +7301,13 @@
     </row>
     <row r="71" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1061</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="72" spans="1:139" x14ac:dyDescent="0.2">
@@ -7270,10 +7318,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1073</v>
+        <v>1099</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>315</v>
@@ -7287,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>334</v>
@@ -7321,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>309</v>
@@ -7397,7 +7445,7 @@
     </row>
     <row r="77" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B77" s="2">
         <v>82</v>
@@ -7477,7 +7525,7 @@
         <v>45</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>433</v>
@@ -7485,13 +7533,13 @@
     </row>
     <row r="79" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="80" spans="1:139" x14ac:dyDescent="0.2">
@@ -7505,7 +7553,7 @@
         <v>45</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>511</v>
@@ -7519,7 +7567,7 @@
         <v>91</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>337</v>
@@ -7627,7 +7675,7 @@
         <v>64</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>429</v>
@@ -7650,7 +7698,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>408</v>
@@ -7714,7 +7762,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>928</v>
@@ -7734,7 +7782,7 @@
         <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>336</v>
@@ -7754,7 +7802,7 @@
         <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>421</v>
@@ -7768,7 +7816,7 @@
         <v>62</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>373</v>
@@ -7820,7 +7868,7 @@
         <v>19</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>286</v>
@@ -7834,7 +7882,7 @@
         <v>31</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>274</v>
@@ -7895,7 +7943,7 @@
         <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>310</v>
@@ -7909,7 +7957,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>326</v>
@@ -7926,7 +7974,7 @@
         <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>503</v>
@@ -7965,7 +8013,7 @@
         <v>276</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>374</v>
@@ -8143,7 +8191,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>503</v>
@@ -8166,7 +8214,7 @@
         <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>434</v>
@@ -8180,7 +8228,7 @@
         <v>35</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>341</v>
@@ -8239,7 +8287,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>519</v>
@@ -8253,7 +8301,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>509</v>
@@ -8273,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>309</v>
@@ -8327,7 +8375,7 @@
         <v>3</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>937</v>
@@ -8344,7 +8392,7 @@
         <v>894</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>372</v>
@@ -8433,7 +8481,7 @@
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B112" s="2">
         <v>894</v>
@@ -8442,7 +8490,7 @@
         <v>50</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>372</v>
@@ -8537,7 +8585,7 @@
         <v>3</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>936</v>
@@ -8554,10 +8602,10 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>404</v>
@@ -8574,7 +8622,7 @@
         <v>58</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>431</v>
@@ -8588,7 +8636,7 @@
         <v>13</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>374</v>
@@ -8640,7 +8688,7 @@
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>108</v>
@@ -8654,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>329</v>
@@ -8688,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>523</v>
@@ -8702,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>350</v>
@@ -8808,7 +8856,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>490</v>
@@ -8900,7 +8948,7 @@
         <v>22</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>375</v>
@@ -8926,7 +8974,7 @@
         <v>67</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>319</v>
@@ -9012,7 +9060,7 @@
         <v>3</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>444</v>
@@ -9035,7 +9083,7 @@
         <v>33</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>525</v>
@@ -9195,7 +9243,7 @@
     </row>
     <row r="139" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B139" s="2">
         <v>5</v>
@@ -9360,7 +9408,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>928</v>
@@ -9406,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>441</v>
@@ -9556,7 +9604,7 @@
         <v>23</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>317</v>
@@ -9573,10 +9621,10 @@
         <v>1</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>388</v>
@@ -9590,10 +9638,10 @@
         <v>13</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>397</v>
@@ -9616,7 +9664,7 @@
         <v>96</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>414</v>
@@ -9630,10 +9678,10 @@
         <v>12</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>432</v>
@@ -9647,7 +9695,7 @@
         <v>38</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>315</v>
@@ -9661,7 +9709,7 @@
         <v>4</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>437</v>
@@ -9692,7 +9740,7 @@
         <v>290</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>449</v>
@@ -9784,13 +9832,13 @@
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B156" s="2">
         <v>290</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>449</v>
@@ -9888,7 +9936,7 @@
         <v>31</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>343</v>
@@ -9935,7 +9983,7 @@
         <v>12</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>400</v>
@@ -9946,13 +9994,13 @@
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B159" s="2">
         <v>12</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>400</v>
@@ -9963,35 +10011,35 @@
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="161" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="162" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="163" spans="1:37" x14ac:dyDescent="0.2">
@@ -10002,7 +10050,7 @@
         <v>10</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>342</v>
@@ -10051,7 +10099,7 @@
         <v>506</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>433</v>
@@ -10152,7 +10200,7 @@
     </row>
     <row r="166" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B166" s="2">
         <v>506</v>
@@ -10161,7 +10209,7 @@
         <v>73</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>433</v>
@@ -10297,7 +10345,7 @@
         <v>3</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>441</v>
@@ -10305,224 +10353,224 @@
     </row>
     <row r="169" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="170" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E170" s="5" t="s">
         <v>1007</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="171" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="172" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="173" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="174" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="175" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="176" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>1021</v>
-      </c>
       <c r="E182" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -10530,18 +10578,18 @@
         <v>2</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -10549,10 +10597,10 @@
         <v>724</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -10560,20 +10608,58 @@
         <v>721</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>1089</v>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -10588,8 +10674,8 @@
   <dimension ref="A1:HU85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:C63"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10634,19 +10720,19 @@
   <sheetData>
     <row r="1" spans="1:229" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>139</v>
@@ -11343,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>927</v>
@@ -11363,7 +11449,7 @@
         <v>721</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>634</v>
@@ -11622,7 +11708,7 @@
     </row>
     <row r="6" spans="1:229" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B6" s="2">
         <v>98</v>
@@ -11797,6 +11883,12 @@
       <c r="B7" s="2">
         <v>11</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1106</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>716</v>
       </c>
@@ -11815,7 +11907,7 @@
     </row>
     <row r="8" spans="1:229" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>721</v>
@@ -11829,7 +11921,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>674</v>
@@ -11911,7 +12003,7 @@
     </row>
     <row r="11" spans="1:229" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>724</v>
@@ -11924,6 +12016,12 @@
       <c r="B12" s="2">
         <v>14</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>1106</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>673</v>
       </c>
@@ -11960,10 +12058,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>939</v>
+        <v>724</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>1107</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>676</v>
@@ -11994,7 +12092,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>926</v>
@@ -12008,13 +12106,13 @@
     </row>
     <row r="16" spans="1:229" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>934</v>
@@ -12031,7 +12129,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>934</v>
@@ -13293,7 +13391,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>704</v>
@@ -13335,7 +13433,7 @@
     </row>
     <row r="27" spans="1:229" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B27" s="2">
         <v>18</v>
@@ -13361,7 +13459,7 @@
         <v>102</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>901</v>
@@ -13378,13 +13476,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>883</v>
@@ -13392,21 +13490,21 @@
     </row>
     <row r="30" spans="1:229" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31" spans="1:229" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>843</v>
@@ -13453,7 +13551,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>906</v>
@@ -13470,7 +13568,7 @@
         <v>102</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>908</v>
@@ -13496,10 +13594,10 @@
         <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>909</v>
@@ -13516,10 +13614,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>723</v>
@@ -13527,7 +13625,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -13536,10 +13634,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -13550,10 +13648,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>632</v>
@@ -13582,10 +13680,10 @@
         <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>670</v>
@@ -13610,11 +13708,14 @@
       <c r="B39" s="2">
         <v>30</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D39" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1071</v>
+        <v>1100</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>751</v>
@@ -13631,10 +13732,10 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>770</v>
@@ -13730,7 +13831,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>931</v>
@@ -13747,10 +13848,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>748</v>
@@ -13818,10 +13919,10 @@
         <v>54</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>828</v>
@@ -13838,10 +13939,13 @@
         <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>902</v>
@@ -13858,10 +13962,10 @@
         <v>113</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>860</v>
@@ -13878,10 +13982,10 @@
         <v>96</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>784</v>
@@ -13897,6 +14001,9 @@
       <c r="B49" s="2">
         <v>2</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>980</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>733</v>
       </c>
@@ -13909,7 +14016,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>849</v>
@@ -13923,10 +14030,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>853</v>
@@ -13943,24 +14050,24 @@
         <v>108</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>854</v>
@@ -13977,10 +14084,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>753</v>
@@ -14021,7 +14128,7 @@
         <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>866</v>
@@ -14067,7 +14174,7 @@
         <v>924</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>843</v>
@@ -14108,7 +14215,7 @@
         <v>53</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>730</v>
@@ -14124,10 +14231,10 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -14135,38 +14242,38 @@
         <v>47</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -14174,10 +14281,10 @@
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -14188,10 +14295,10 @@
         <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -14199,32 +14306,32 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -14232,10 +14339,10 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -14243,10 +14350,10 @@
         <v>59</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -14254,21 +14361,21 @@
         <v>96</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -14276,10 +14383,10 @@
         <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -14287,21 +14394,21 @@
         <v>71</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -14309,10 +14416,10 @@
         <v>99</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -14320,32 +14427,32 @@
         <v>112</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -14353,10 +14460,10 @@
         <v>46</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -14364,10 +14471,10 @@
         <v>111</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -14375,10 +14482,10 @@
         <v>110</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -14386,10 +14493,10 @@
         <v>107</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -14397,22 +14504,698 @@
         <v>38</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB59FC-D7C1-4E3F-AC07-93B907B25BD8}">
+  <dimension ref="A1:EI11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="44" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="67" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="75" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="96" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="100" max="118" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="133" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="137" max="139" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="140" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2">
+        <v>172</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>